--- a/resources/experiment 2/metrics/MAPE/upto time/Macroalbuminuria (UPTO).xlsx
+++ b/resources/experiment 2/metrics/MAPE/upto time/Macroalbuminuria (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112994322813538.2</v>
+        <v>4368708010079.297</v>
       </c>
       <c r="C3" t="n">
-        <v>112994735121981.1</v>
+        <v>4257358309887.731</v>
       </c>
       <c r="D3" t="n">
-        <v>112994735121981.1</v>
+        <v>342974371019027.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178850039693647.6</v>
+        <v>3903242085595.563</v>
       </c>
       <c r="C4" t="n">
-        <v>178992665051425.1</v>
+        <v>3829323594115.925</v>
       </c>
       <c r="D4" t="n">
-        <v>178992665051425.1</v>
+        <v>179997264516186.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3365721857883674</v>
+        <v>705232929002432</v>
       </c>
       <c r="C5" t="n">
-        <v>3365721857883674</v>
+        <v>937431475126992.2</v>
       </c>
       <c r="D5" t="n">
-        <v>3365721857883674</v>
+        <v>3405232554532662</v>
       </c>
     </row>
   </sheetData>
